--- a/HINS_MCU_V3.3/doc/MIP.xlsx
+++ b/HINS_MCU_V3.3/doc/MIP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B51FC9-37C3-4085-BF19-03E81B14581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC0B00-CEAE-407D-937C-7F060B5FC04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讀取 Aiding Measurement Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75 65 0C 06 06 0D 82 00 01 46 C8 5E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +500,30 @@
   </si>
   <si>
     <t>75 65 0C 06 06 0D 82 00 01 10 92 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 10 Hz 吐出 GPS Timestamp (0xFF,0xD3)，GNSS Dual Antenna Status (0x82,0x49)與Status (0x82,0x10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 10 00 64 EF C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 UART1 br 230400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 07 07 40 01 00 03 84 00 BC 64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,12 +560,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -560,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -581,6 +619,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1234,8 +1281,8 @@
     <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="22" width="9.125" style="1"/>
@@ -1272,7 +1319,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1286,7 +1333,7 @@
         <v>08</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G2&amp;" "&amp;H2&amp;" 51"&amp;" 52"</f>
@@ -1339,7 +1386,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G17" si="0">DEC2HEX(LEN(SUBSTITUTE(H4," ",""))/2,2)</f>
+        <f t="shared" ref="G4:G18" si="0">DEC2HEX(LEN(SUBSTITUTE(H4," ",""))/2,2)</f>
         <v>0A</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1432,32 +1479,32 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8:I17" si="2">"BC"&amp;" CB"&amp;" 97 "&amp;G8&amp;" "&amp;H8&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G8&amp;" "&amp;H8&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0D 75 65 0C 07 07 40 01 00 03 84 00 BC 64 51 52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1473,94 +1520,91 @@
         <v>0E</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I18" si="2">"BC"&amp;" CB"&amp;" 97 "&amp;G9&amp;" "&amp;H9&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 01 C2 00 CA 8B 51 52</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 0A 75 65 7F 04 04 02 02 12 77 A5 51 52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 12 75 65 7F 0C 0C 02 01 12 00 00 00 01 00 00 00 01 88 21 51 52</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0E</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
-      </c>
-    </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1579,189 +1623,195 @@
         <v>0E</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0B</v>
+        <v>0E</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H15," ",""))/2,2)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>0B</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I15" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G15&amp;" "&amp;H15&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H16," ",""))/2,2)</f>
+        <v>08</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G16&amp;" "&amp;H16&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 08 75 65 01 02 02 02 E1 C7 51 52</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="I18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f t="shared" ref="G21:G40" si="3">DEC2HEX(LEN(SUBSTITUTE(H21," ",""))/2,2)</f>
-        <v>0C</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" ref="I21:I42" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G21&amp;" "&amp;H21&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G22:G32" si="3">DEC2HEX(LEN(SUBSTITUTE(H22," ",""))/2,2)</f>
         <v>0C</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I22:I35" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G22&amp;" "&amp;H22&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0C 75 65 0D 06 06 50 01 00 05 01 4A 74 51 52</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1770,23 +1820,23 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1795,23 +1845,23 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1820,23 +1870,23 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1845,23 +1895,23 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1870,29 +1920,29 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1901,23 +1951,23 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1926,23 +1976,23 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1951,7 +2001,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>59</v>
@@ -1960,292 +2010,316 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 13 05 05 01 02 01 01 FC 0E 51 52</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0C</v>
+        <f t="shared" ref="G34:G35" si="5">DEC2HEX(LEN(SUBSTITUTE(H34," ",""))/2,2)</f>
+        <v>0B</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" t="str">
-        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G34&amp;" "&amp;H34&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 98 0C 75 65 0C 06 06 0D A0 00 01 02 A2 92 51 52</v>
+        <v>49</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>0B</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 00 84 1B 51 52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H38," ",""))/2,2)</f>
         <v>0C</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" t="str">
-        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G35&amp;" "&amp;H35&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="H38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" t="str">
+        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G38&amp;" "&amp;H38&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 10 92 28 51 52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45">
-      <c r="A39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>DEC2HEX(LEN(SUBSTITUTE(H39," ",""))/2,2)</f>
+        <v>0C</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B 51 52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30">
+        <v>84</v>
+      </c>
+      <c r="I39" t="str">
+        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G39&amp;" "&amp;H39&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 98 0C 75 65 0C 06 06 0D A0 00 01 02 A2 92 51 52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>0E</v>
+        <f>DEC2HEX(LEN(SUBSTITUTE(H40," ",""))/2,2)</f>
+        <v>0C</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 46 00 64 33 06 51 52</v>
+        <v>66</v>
+      </c>
+      <c r="I40" t="str">
+        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G40&amp;" "&amp;H40&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="7" t="str">
-        <f t="shared" ref="G41:G42" si="5">DEC2HEX(LEN(SUBSTITUTE(H41," ",""))/2,2)</f>
-        <v>0B</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>0B</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 00 84 1B 51 52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="6" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H44," ",""))/2,2)</f>
+        <v>11</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G44&amp;" "&amp;H44&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="7" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H45," ",""))/2,2)</f>
-        <v>0C</v>
-      </c>
-      <c r="H45" s="2" t="s">
+        <v>0E</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G45&amp;" "&amp;H45&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
+      <c r="A46" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H46," ",""))/2,2)</f>
+        <v>14</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G46&amp;" "&amp;H46&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B 51 52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H47," ",""))/2,2)</f>
+        <v>0E</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G47&amp;" "&amp;H47&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 46 00 64 33 06 51 52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I45" t="str">
-        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G45&amp;" "&amp;H45&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 10 92 28 51 52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
-        <v>117</v>
+      <c r="B48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H48," ",""))/2,2)</f>
+        <v>14</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G48&amp;" "&amp;H48&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 10 00 64 EF C9 51 52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A43:C43"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HINS_MCU_V3.3/doc/MIP.xlsx
+++ b/HINS_MCU_V3.3/doc/MIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC0B00-CEAE-407D-937C-7F060B5FC04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D332AD9-2A0C-4C06-B017-32DBEC75E74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讀 Aiding Measurement Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,6 +520,34 @@
   </si>
   <si>
     <t>75 65 0C 07 07 40 01 00 03 84 00 BC 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀 Aiding Measurement Summary(0x82, 0x46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 Navigation Filter Initialization (0x82, 0x52) 資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 03 03 52 02 41 8D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 10 Hz 吐出 GPS Timestamp (0xFF,0xD3)，GNSS Dual Antenna Status (0x82,0x49)，Status (0x82,0x10)與Aiding Measurement Summary (0x82, 0x46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 11 11 0F 01 82 04 D3 00 64 49 00 64 10 00 64 46 00 64 A0 42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +609,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -598,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -620,13 +650,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,10 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,8 +1323,8 @@
     <col min="4" max="4" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="86.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
@@ -1479,23 +1522,23 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G8&amp;" "&amp;H8&amp;" 51"&amp;" 52"</f>
@@ -1782,7 +1825,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" ref="G22:G32" si="3">DEC2HEX(LEN(SUBSTITUTE(H22," ",""))/2,2)</f>
+        <f t="shared" ref="G22:G33" si="3">DEC2HEX(LEN(SUBSTITUTE(H22," ",""))/2,2)</f>
         <v>0C</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2024,7 +2067,47 @@
         <v>BC CB 97 0B 75 65 13 05 05 01 02 01 01 FC 0E 51 52</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="33" spans="1:22" s="12" customFormat="1" ht="30">
+      <c r="A33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>09</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 09 75 65 0D 03 03 52 02 41 8D 51 52</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="6" t="s">
         <v>89</v>
       </c>
@@ -2053,7 +2136,7 @@
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:22">
       <c r="A35" s="6" t="s">
         <v>90</v>
       </c>
@@ -2082,16 +2165,16 @@
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 00 84 1B 51 52</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:9">
+    <row r="37" spans="1:22">
+      <c r="A37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>4</v>
@@ -2104,14 +2187,14 @@
         <v>0C</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" t="str">
         <f>"BC"&amp;" CB"&amp;" 98 "&amp;G38&amp;" "&amp;H38&amp;" 51"&amp;" 52"</f>
         <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 10 92 28 51 52</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:22">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -2136,9 +2219,9 @@
         <v>BC CB 98 0C 75 65 0C 06 06 0D A0 00 01 02 A2 92 51 52</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:22">
       <c r="A40" s="6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>4</v>
@@ -2161,7 +2244,7 @@
         <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:22">
       <c r="A41" s="6" t="s">
         <v>85</v>
       </c>
@@ -2177,68 +2260,34 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="11" t="s">
+    <row r="42" spans="1:22">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:22" ht="30">
+      <c r="A46" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H44," ",""))/2,2)</f>
-        <v>11</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G44&amp;" "&amp;H44&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H45," ",""))/2,2)</f>
-        <v>0E</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G45&amp;" "&amp;H45&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="45">
-      <c r="A46" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>4</v>
@@ -2246,26 +2295,24 @@
       <c r="C46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H46," ",""))/2,2)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I46" s="8" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G46&amp;" "&amp;H46&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B 51 52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
+        <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30">
       <c r="A47" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>4</v>
@@ -2283,16 +2330,16 @@
         <v>0E</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="I47" s="8" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G47&amp;" "&amp;H47&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 46 00 64 33 06 51 52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="45">
-      <c r="A48" s="11" t="s">
-        <v>118</v>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="45">
+      <c r="A48" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>4</v>
@@ -2303,22 +2350,101 @@
       <c r="D48" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="7" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H48," ",""))/2,2)</f>
         <v>14</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I48" s="8" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G48&amp;" "&amp;H48&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B 51 52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H49," ",""))/2,2)</f>
+        <v>0E</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G49&amp;" "&amp;H49&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 46 00 64 33 06 51 52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H50," ",""))/2,2)</f>
+        <v>14</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G50&amp;" "&amp;H50&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 10 00 64 EF C9 51 52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60">
+      <c r="A51" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="7" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H51," ",""))/2,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G51&amp;" "&amp;H51&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 17 75 65 0C 11 11 0F 01 82 04 D3 00 64 49 00 64 10 00 64 46 00 64 A0 42 51 52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HINS_MCU_V3.3/doc/MIP.xlsx
+++ b/HINS_MCU_V3.3/doc/MIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D332AD9-2A0C-4C06-B017-32DBEC75E74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C25A0B4-0B72-4784-9515-8B211BF74533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,17 +571,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -628,21 +629,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,8 +645,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -659,16 +657,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,12 +1310,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="2" bestFit="1" customWidth="1"/>
@@ -1331,8 +1329,8 @@
     <col min="12" max="22" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1360,8 +1358,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1383,8 +1381,8 @@
         <v>BC CB 97 08 75 65 01 02 02 01 E0 C6 51 52</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1414,8 +1412,8 @@
         <v>BC CB 97 0A 75 65 0C 04 04 41 02 01 32 9F 51 52</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1440,8 +1438,8 @@
         <v>BC CB 97 0A 75 65 0C 04 04 41 02 02 33 A0 51 52</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1466,8 +1464,8 @@
         <v>BC CB 97 0D 75 65 0C 07 07 41 01 01 05 21 00 5D AE 51 52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1492,8 +1490,8 @@
         <v>BC CB 97 0D 75 65 0C 07 07 41 01 02 05 22 02 61 B6 51 52</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1520,8 +1518,8 @@
         <v>BC CB 97 0A 75 65 01 04 04 09 02 12 00 C6 51 52</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1545,8 +1543,8 @@
         <v>BC CB 97 0D 75 65 0C 07 07 40 01 00 03 84 00 BC 64 51 52</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1570,8 +1568,8 @@
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1595,8 +1593,8 @@
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 01 C2 00 CA 8B 51 52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1620,8 +1618,8 @@
         <v>BC CB 97 0A 75 65 7F 04 04 02 02 12 77 A5 51 52</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1645,8 +1643,8 @@
         <v>BC CB 97 12 75 65 7F 0C 0C 02 01 12 00 00 00 01 00 00 00 01 88 21 51 52</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1673,8 +1671,8 @@
         <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1701,8 +1699,8 @@
         <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1723,8 +1721,8 @@
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1745,8 +1743,8 @@
         <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1767,8 +1765,8 @@
         <v>BC CB 97 08 75 65 01 02 02 02 E1 C7 51 52</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1789,8 +1787,8 @@
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1800,8 +1798,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1811,8 +1809,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1836,8 +1834,8 @@
         <v>BC CB 97 0C 75 65 0D 06 06 50 01 00 05 01 4A 74 51 52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1861,8 +1859,8 @@
         <v>BC CB 97 0B 75 65 0D 05 05 50 02 00 05 48 22 51 52</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1886,8 +1884,8 @@
         <v>BC CB 97 0A 75 65 0C 04 04 28 01 02 19 53 51 52</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1903,7 +1901,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I25" s="1" t="str">
@@ -1911,8 +1909,8 @@
         <v>BC CB 97 0A 75 65 0C 04 04 28 01 01 18 52 51 52</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1928,7 +1926,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I26" s="1" t="str">
@@ -1936,8 +1934,8 @@
         <v>BC CB 97 0A 75 65 0C 04 04 28 01 04 1B 55 51 52</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1953,7 +1951,7 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I27" s="1" t="str">
@@ -1961,14 +1959,14 @@
         <v>BC CB 97 09 75 65 0C 03 03 28 02 16 34 51 52</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1984,7 +1982,7 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I29" s="1" t="str">
@@ -1992,8 +1990,8 @@
         <v>BC CB 97 09 75 65 0C 03 03 33 02 21 4A 51 52</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2009,7 +2007,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="1" t="str">
@@ -2017,8 +2015,8 @@
         <v>BC CB 97 0A 75 65 0D 04 04 54 02 01 46 DE 51 52</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2034,7 +2032,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>103</v>
       </c>
       <c r="I31" s="1" t="str">
@@ -2042,8 +2040,8 @@
         <v>BC CB 97 0A 75 65 0D 04 04 54 02 02 47 DF 51 52</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2059,7 +2057,7 @@
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I32" s="1" t="str">
@@ -2067,122 +2065,122 @@
         <v>BC CB 97 0B 75 65 13 05 05 01 02 01 01 FC 0E 51 52</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="12" customFormat="1" ht="30">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="str">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="14" t="str">
+      <c r="I33" s="8" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 09 75 65 0D 03 03 52 02 41 8D 51 52</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="6" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7" t="str">
+      <c r="F34" s="6"/>
+      <c r="G34" s="5" t="str">
         <f t="shared" ref="G34:G35" si="5">DEC2HEX(LEN(SUBSTITUTE(H34," ",""))/2,2)</f>
         <v>0B</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="8" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7" t="str">
+      <c r="F35" s="6"/>
+      <c r="G35" s="5" t="str">
         <f t="shared" si="5"/>
         <v>0B</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="8" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 00 84 1B 51 52</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="6" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="7" t="str">
+      <c r="G38" s="5" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H38," ",""))/2,2)</f>
         <v>0C</v>
       </c>
@@ -2194,24 +2192,24 @@
         <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 10 92 28 51 52</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="7" t="str">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H39," ",""))/2,2)</f>
         <v>0C</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I39" t="str">
@@ -2219,24 +2217,24 @@
         <v>BC CB 98 0C 75 65 0C 06 06 0D A0 00 01 02 A2 92 51 52</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7" t="str">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H40," ",""))/2,2)</f>
         <v>0C</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I40" t="str">
@@ -2244,200 +2242,200 @@
         <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="11" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:22" ht="30">
-      <c r="A46" s="9" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H46," ",""))/2,2)</f>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" ref="G46:G51" si="6">DEC2HEX(LEN(SUBSTITUTE(H46," ",""))/2,2)</f>
         <v>11</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G46&amp;" "&amp;H46&amp;" 51"&amp;" 52"</f>
+      <c r="I46" s="6" t="str">
+        <f t="shared" ref="I46:I51" si="7">"BC"&amp;" CB"&amp;" 97 "&amp;G46&amp;" "&amp;H46&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="30">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H47," ",""))/2,2)</f>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>0E</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G47&amp;" "&amp;H47&amp;" 51"&amp;" 52"</f>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="45">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H48," ",""))/2,2)</f>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G48&amp;" "&amp;H48&amp;" 51"&amp;" 52"</f>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B 51 52</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H49," ",""))/2,2)</f>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>0E</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I49" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G49&amp;" "&amp;H49&amp;" 51"&amp;" 52"</f>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 46 00 64 33 06 51 52</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="45">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H50," ",""))/2,2)</f>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I50" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G50&amp;" "&amp;H50&amp;" 51"&amp;" 52"</f>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 10 00 64 EF C9 51 52</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="60">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="7" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H51," ",""))/2,2)</f>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I51" s="8" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G51&amp;" "&amp;H51&amp;" 51"&amp;" 52"</f>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>BC CB 97 17 75 65 0C 11 11 0F 01 82 04 D3 00 64 49 00 64 10 00 64 46 00 64 A0 42 51 52</v>
       </c>
     </row>
@@ -2459,47 +2457,47 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>

--- a/HINS_MCU_V3.3/doc/MIP.xlsx
+++ b/HINS_MCU_V3.3/doc/MIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C25A0B4-0B72-4784-9515-8B211BF74533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0418452A-F33F-4DA8-935E-76579F5ED7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,7 +547,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>75 65 0C 11 11 0F 01 82 04 D3 00 64 49 00 64 10 00 64 46 00 64 A0 42</t>
+    <r>
+      <t xml:space="preserve">75 65 0C 11 11 0F 01 82 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D3 00 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 49 00 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 00 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46 00 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A0 42</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 1 Hz 吐出 GPS Timestamp (0xFF,0xD3)，GNSS Dual Antenna Status (0x82,0x49)，Status (0x82,0x10)與Aiding Measurement Summary (0x82, 0x46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 11 11 0F 01 82 04 D3 03 E8 49 03 E8 10 03 E8 46 03 E8 BC E8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 5 Hz 吐出 GPS Timestamp (0xFF,0xD3)，GNSS Dual Antenna Status (0x82,0x49)，Status (0x82,0x10)與Aiding Measurement Summary (0x82, 0x46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 11 11 0F 01 82 04 D3 00 C8 49 00 C8 10 00 C8 46 00 C8 30 DA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +675,38 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -651,12 +775,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -668,6 +786,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,16 +1430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="2" bestFit="1" customWidth="1"/>
@@ -1330,7 +1454,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1359,7 +1483,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1382,7 +1506,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1413,7 +1537,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1439,7 +1563,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1465,7 +1589,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1491,7 +1615,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1519,7 +1643,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1544,7 +1668,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1569,7 +1693,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1594,7 +1718,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1619,7 +1743,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1644,7 +1768,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1672,7 +1796,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1700,7 +1824,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1722,7 +1846,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1744,7 +1868,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1766,7 +1890,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1788,7 +1912,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1799,7 +1923,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1810,7 +1934,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1835,7 +1959,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1860,7 +1984,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1885,7 +2009,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1910,7 +2034,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1935,7 +2059,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1960,13 +2084,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1991,7 +2115,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2016,7 +2140,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2041,7 +2165,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2066,7 +2190,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2106,7 +2230,7 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2135,7 +2259,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2164,14 +2288,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2193,7 +2317,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2218,7 +2342,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2243,7 +2367,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2277,14 +2401,14 @@
       <c r="H43" s="5"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2304,12 +2428,12 @@
         <v>87</v>
       </c>
       <c r="I46" s="6" t="str">
-        <f t="shared" ref="I46:I51" si="7">"BC"&amp;" CB"&amp;" 97 "&amp;G46&amp;" "&amp;H46&amp;" 51"&amp;" 52"</f>
+        <f t="shared" ref="I46:I52" si="7">"BC"&amp;" CB"&amp;" 97 "&amp;G46&amp;" "&amp;H46&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2336,7 +2460,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2363,7 +2487,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2390,7 +2514,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2415,7 +2539,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2437,6 +2561,56 @@
       <c r="I51" s="6" t="str">
         <f t="shared" si="7"/>
         <v>BC CB 97 17 75 65 0C 11 11 0F 01 82 04 D3 00 64 49 00 64 10 00 64 46 00 64 A0 42 51 52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f t="shared" ref="G52" si="8">DEC2HEX(LEN(SUBSTITUTE(H52," ",""))/2,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>BC CB 97 17 75 65 0C 11 11 0F 01 82 04 D3 03 E8 49 03 E8 10 03 E8 46 03 E8 BC E8 51 52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <f t="shared" ref="G53" si="9">DEC2HEX(LEN(SUBSTITUTE(H53," ",""))/2,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" ref="I53" si="10">"BC"&amp;" CB"&amp;" 97 "&amp;G53&amp;" "&amp;H53&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 17 75 65 0C 11 11 0F 01 82 04 D3 00 C8 49 00 C8 10 00 C8 46 00 C8 30 DA 51 52</v>
       </c>
     </row>
   </sheetData>
